--- a/biology/Origine et évolution du vivant/Distance_génétique_(génétique_formelle)/Distance_génétique_(génétique_formelle).xlsx
+++ b/biology/Origine et évolution du vivant/Distance_génétique_(génétique_formelle)/Distance_génétique_(génétique_formelle).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Distance_g%C3%A9n%C3%A9tique_(g%C3%A9n%C3%A9tique_formelle)</t>
+          <t>Distance_génétique_(génétique_formelle)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La distance génétique désigne la distance virtuelle entre deux locus situés sur un même chromosome. Elle s'exprime le plus souvent en centimorgans.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Distance_g%C3%A9n%C3%A9tique_(g%C3%A9n%C3%A9tique_formelle)</t>
+          <t>Distance_génétique_(génétique_formelle)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À partir de la découverte des gènes liés et de la recombinaison par enjambement, l'un des étudiants de Morgan, Alfred Sturtevant, a mis au point une méthode permettant d'établir une carte génétique, c'est-à-dire une liste ordonnée des locus tout le long d'un chromosome. 
 Alfred Sturtevant commença sa carrière en génétique en 1911 comme étudiant de deuxième cycle dans le laboratoire du grand généticien Thomas Hunt Morgan. Morgan confia à Sturtevant la tâche d'expliquer certaines données. Celles-ci concernaient différentes combinaisons alléliques qui apparaissaient dans des croisements de gènes présentant une transmission liée au chromosome X. En une soirée, Sturtevant exploita toutes les données et ce faisant, développa la méthode analytique permettant de cartographier les gènes sur les chromosomes, qui est toujours en vigueur aujourd'hui. 
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Distance_g%C3%A9n%C3%A9tique_(g%C3%A9n%C3%A9tique_formelle)</t>
+          <t>Distance_génétique_(génétique_formelle)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La distance génétique est la distance qui sépare deux gènes sur un même chromosome. Sturtevant a exprimé la distance entre les gènes en unités cartographiques. De nos jours, on emploie plutôt le terme Centimorgan(cM) en l'honneur de Morgan.
 </t>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Distance_g%C3%A9n%C3%A9tique_(g%C3%A9n%C3%A9tique_formelle)</t>
+          <t>Distance_génétique_(génétique_formelle)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Calcul de la distance génétique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La distance génétique se calcule à partir de la fréquence de recombinaison (
             f
@@ -618,7 +636,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Distance_g%C3%A9n%C3%A9tique_(g%C3%A9n%C3%A9tique_formelle)</t>
+          <t>Distance_génétique_(génétique_formelle)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -636,7 +654,9 @@
           <t>Application</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La distance génétique du génome (mesurée en centimorgans) consiste donc à localiser sur les chromosomes la région en cause dans une maladie génétique. Une telle distance génétique a permis de placer et organiser une multitude de marqueurs polymorphes sur les différents chromosomes.
 Ces marqueurs polymorphes, utilisés dans les études génétiques sont :
@@ -645,7 +665,7 @@
 Aujourd'hui, ces différentes distances sont unifiées pour plusieurs organismes et l'on peut voir dans les banques de données la localisation des gènes, marqueurs et maladies sur les différents chromosomes d'une espèce.
 Les Banques de données
 Un site unifié du National Institute of Health (NIH) américain regroupe l'ensemble des informations et des logiciels permettant l'analyse des génomes des êtres vivants.
-Le site ncbi (National Center of Biotechnology Information) public mis en place en 1988 est consultable par tous sur internet[1]. 
+Le site ncbi (National Center of Biotechnology Information) public mis en place en 1988 est consultable par tous sur internet. 
 </t>
         </is>
       </c>
